--- a/Team-Data/2011-12/3-29-2011-12.xlsx
+++ b/Team-Data/2011-12/3-29-2011-12.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -780,7 +847,7 @@
         <v>29</v>
       </c>
       <c r="AP2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AQ2" t="n">
         <v>24</v>
@@ -819,7 +886,7 @@
         <v>20</v>
       </c>
       <c r="BC2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-29-2011-12</t>
+          <t>2012-03-29</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>1</v>
       </c>
       <c r="AD3" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AE3" t="n">
         <v>11</v>
@@ -935,13 +1002,13 @@
         <v>10</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ3" t="n">
         <v>30</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-29-2011-12</t>
+          <t>2012-03-29</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-12.9</v>
       </c>
       <c r="AD4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AE4" t="n">
         <v>30</v>
@@ -1144,13 +1211,13 @@
         <v>16</v>
       </c>
       <c r="AP4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AQ4" t="n">
         <v>20</v>
       </c>
       <c r="AR4" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AS4" t="n">
         <v>27</v>
@@ -1162,7 +1229,7 @@
         <v>20</v>
       </c>
       <c r="AV4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AW4" t="n">
         <v>29</v>
@@ -1171,7 +1238,7 @@
         <v>6</v>
       </c>
       <c r="AY4" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AZ4" t="n">
         <v>12</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-29-2011-12</t>
+          <t>2012-03-29</t>
         </is>
       </c>
     </row>
@@ -1323,7 +1390,7 @@
         <v>2</v>
       </c>
       <c r="AO5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP5" t="n">
         <v>20</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-29-2011-12</t>
+          <t>2012-03-29</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>-5.1</v>
       </c>
       <c r="AD6" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AE6" t="n">
         <v>24</v>
@@ -1496,7 +1563,7 @@
         <v>29</v>
       </c>
       <c r="AL6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM6" t="n">
         <v>16</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-29-2011-12</t>
+          <t>2012-03-29</t>
         </is>
       </c>
     </row>
@@ -1576,25 +1643,25 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E7" t="n">
         <v>29</v>
       </c>
       <c r="F7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5580000000000001</v>
+        <v>0.569</v>
       </c>
       <c r="H7" t="n">
         <v>48.4</v>
       </c>
       <c r="I7" t="n">
-        <v>35.8</v>
+        <v>35.9</v>
       </c>
       <c r="J7" t="n">
-        <v>81.59999999999999</v>
+        <v>81.7</v>
       </c>
       <c r="K7" t="n">
         <v>0.439</v>
@@ -1606,34 +1673,34 @@
         <v>22.5</v>
       </c>
       <c r="N7" t="n">
-        <v>0.334</v>
+        <v>0.333</v>
       </c>
       <c r="O7" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="P7" t="n">
-        <v>20.4</v>
+        <v>20.6</v>
       </c>
       <c r="Q7" t="n">
         <v>0.76</v>
       </c>
       <c r="R7" t="n">
-        <v>10.1</v>
+        <v>10.2</v>
       </c>
       <c r="S7" t="n">
-        <v>32.4</v>
+        <v>32.6</v>
       </c>
       <c r="T7" t="n">
-        <v>42.5</v>
+        <v>42.8</v>
       </c>
       <c r="U7" t="n">
         <v>21.2</v>
       </c>
       <c r="V7" t="n">
-        <v>14.2</v>
+        <v>14.1</v>
       </c>
       <c r="W7" t="n">
-        <v>8.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="X7" t="n">
         <v>5.2</v>
@@ -1648,37 +1715,37 @@
         <v>18.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>94.7</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="AC7" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="AD7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH7" t="n">
         <v>13</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>14</v>
       </c>
       <c r="AI7" t="n">
         <v>20</v>
       </c>
       <c r="AJ7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AK7" t="n">
         <v>20</v>
       </c>
       <c r="AL7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AM7" t="n">
         <v>4</v>
@@ -1687,22 +1754,22 @@
         <v>21</v>
       </c>
       <c r="AO7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP7" t="n">
         <v>24</v>
       </c>
-      <c r="AP7" t="n">
-        <v>25</v>
-      </c>
       <c r="AQ7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR7" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AS7" t="n">
         <v>4</v>
       </c>
       <c r="AT7" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AU7" t="n">
         <v>13</v>
@@ -1714,10 +1781,10 @@
         <v>4</v>
       </c>
       <c r="AX7" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AY7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AZ7" t="n">
         <v>9</v>
@@ -1729,7 +1796,7 @@
         <v>19</v>
       </c>
       <c r="BC7" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-29-2011-12</t>
+          <t>2012-03-29</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>1.3</v>
       </c>
       <c r="AD8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE8" t="n">
         <v>13</v>
@@ -1854,7 +1921,7 @@
         <v>3</v>
       </c>
       <c r="AJ8" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK8" t="n">
         <v>3</v>
@@ -1896,7 +1963,7 @@
         <v>7</v>
       </c>
       <c r="AX8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY8" t="n">
         <v>30</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-29-2011-12</t>
+          <t>2012-03-29</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>-5.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AE9" t="n">
         <v>23</v>
@@ -2030,7 +2097,7 @@
         <v>23</v>
       </c>
       <c r="AH9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI9" t="n">
         <v>28</v>
@@ -2054,10 +2121,10 @@
         <v>15</v>
       </c>
       <c r="AP9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR9" t="n">
         <v>12</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-29-2011-12</t>
+          <t>2012-03-29</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-2.2</v>
       </c>
       <c r="AD10" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AE10" t="n">
         <v>22</v>
@@ -2218,7 +2285,7 @@
         <v>11</v>
       </c>
       <c r="AJ10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK10" t="n">
         <v>10</v>
@@ -2245,7 +2312,7 @@
         <v>29</v>
       </c>
       <c r="AS10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AT10" t="n">
         <v>28</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-29-2011-12</t>
+          <t>2012-03-29</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>0.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE11" t="n">
         <v>13</v>
@@ -2433,7 +2500,7 @@
         <v>15</v>
       </c>
       <c r="AU11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AV11" t="n">
         <v>16</v>
@@ -2448,7 +2515,7 @@
         <v>19</v>
       </c>
       <c r="AZ11" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA11" t="n">
         <v>26</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-29-2011-12</t>
+          <t>2012-03-29</t>
         </is>
       </c>
     </row>
@@ -2486,28 +2553,28 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E12" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F12" t="n">
         <v>20</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6</v>
+        <v>0.592</v>
       </c>
       <c r="H12" t="n">
         <v>48.3</v>
       </c>
       <c r="I12" t="n">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="J12" t="n">
         <v>80.5</v>
       </c>
       <c r="K12" t="n">
-        <v>0.435</v>
+        <v>0.436</v>
       </c>
       <c r="L12" t="n">
         <v>5.8</v>
@@ -2519,10 +2586,10 @@
         <v>0.37</v>
       </c>
       <c r="O12" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="P12" t="n">
-        <v>26.1</v>
+        <v>26</v>
       </c>
       <c r="Q12" t="n">
         <v>0.776</v>
@@ -2534,13 +2601,13 @@
         <v>31</v>
       </c>
       <c r="T12" t="n">
-        <v>43.3</v>
+        <v>43.4</v>
       </c>
       <c r="U12" t="n">
         <v>18.2</v>
       </c>
       <c r="V12" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="W12" t="n">
         <v>8</v>
@@ -2549,43 +2616,43 @@
         <v>5.3</v>
       </c>
       <c r="Y12" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="Z12" t="n">
         <v>21.9</v>
       </c>
       <c r="AA12" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="AB12" t="n">
-        <v>96.09999999999999</v>
+        <v>96.2</v>
       </c>
       <c r="AC12" t="n">
         <v>2.8</v>
       </c>
       <c r="AD12" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AE12" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF12" t="n">
         <v>7</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>6</v>
       </c>
       <c r="AG12" t="n">
         <v>7</v>
       </c>
       <c r="AH12" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ12" t="n">
         <v>20</v>
       </c>
       <c r="AK12" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AL12" t="n">
         <v>19</v>
@@ -2594,7 +2661,7 @@
         <v>22</v>
       </c>
       <c r="AN12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO12" t="n">
         <v>3</v>
@@ -2609,10 +2676,10 @@
         <v>7</v>
       </c>
       <c r="AS12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AT12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU12" t="n">
         <v>29</v>
@@ -2621,13 +2688,13 @@
         <v>13</v>
       </c>
       <c r="AW12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX12" t="n">
         <v>11</v>
       </c>
       <c r="AY12" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AZ12" t="n">
         <v>28</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-29-2011-12</t>
+          <t>2012-03-29</t>
         </is>
       </c>
     </row>
@@ -2746,10 +2813,10 @@
         <v>1.9</v>
       </c>
       <c r="AD13" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AE13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF13" t="n">
         <v>8</v>
@@ -2770,7 +2837,7 @@
         <v>14</v>
       </c>
       <c r="AL13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AM13" t="n">
         <v>5</v>
@@ -2788,7 +2855,7 @@
         <v>29</v>
       </c>
       <c r="AR13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS13" t="n">
         <v>25</v>
@@ -2797,7 +2864,7 @@
         <v>16</v>
       </c>
       <c r="AU13" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AV13" t="n">
         <v>3</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-29-2011-12</t>
+          <t>2012-03-29</t>
         </is>
       </c>
     </row>
@@ -2850,37 +2917,37 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E14" t="n">
         <v>31</v>
       </c>
       <c r="F14" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G14" t="n">
-        <v>0.608</v>
+        <v>0.62</v>
       </c>
       <c r="H14" t="n">
         <v>48.6</v>
       </c>
       <c r="I14" t="n">
-        <v>36.1</v>
+        <v>36.2</v>
       </c>
       <c r="J14" t="n">
-        <v>79.5</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="K14" t="n">
-        <v>0.455</v>
+        <v>0.456</v>
       </c>
       <c r="L14" t="n">
         <v>5.4</v>
       </c>
       <c r="M14" t="n">
-        <v>17.2</v>
+        <v>17.3</v>
       </c>
       <c r="N14" t="n">
-        <v>0.313</v>
+        <v>0.312</v>
       </c>
       <c r="O14" t="n">
         <v>18.3</v>
@@ -2889,31 +2956,31 @@
         <v>24.2</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.758</v>
+        <v>0.756</v>
       </c>
       <c r="R14" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="S14" t="n">
-        <v>33.9</v>
+        <v>34.1</v>
       </c>
       <c r="T14" t="n">
         <v>45.6</v>
       </c>
       <c r="U14" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="V14" t="n">
         <v>15.3</v>
       </c>
       <c r="W14" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="X14" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="Z14" t="n">
         <v>17.5</v>
@@ -2925,16 +2992,16 @@
         <v>96</v>
       </c>
       <c r="AC14" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AE14" t="n">
         <v>6</v>
       </c>
       <c r="AF14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG14" t="n">
         <v>6</v>
@@ -2949,7 +3016,7 @@
         <v>23</v>
       </c>
       <c r="AK14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL14" t="n">
         <v>24</v>
@@ -2970,7 +3037,7 @@
         <v>15</v>
       </c>
       <c r="AR14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AS14" t="n">
         <v>1</v>
@@ -2982,16 +3049,16 @@
         <v>11</v>
       </c>
       <c r="AV14" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW14" t="n">
         <v>30</v>
       </c>
       <c r="AX14" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AY14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AZ14" t="n">
         <v>3</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-29-2011-12</t>
+          <t>2012-03-29</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>1.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AE15" t="n">
         <v>13</v>
@@ -3119,7 +3186,7 @@
         <v>8</v>
       </c>
       <c r="AG15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH15" t="n">
         <v>9</v>
@@ -3170,7 +3237,7 @@
         <v>1</v>
       </c>
       <c r="AX15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY15" t="n">
         <v>23</v>
@@ -3185,7 +3252,7 @@
         <v>18</v>
       </c>
       <c r="BC15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-29-2011-12</t>
+          <t>2012-03-29</t>
         </is>
       </c>
     </row>
@@ -3214,22 +3281,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E16" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F16" t="n">
         <v>13</v>
       </c>
       <c r="G16" t="n">
-        <v>0.735</v>
+        <v>0.729</v>
       </c>
       <c r="H16" t="n">
         <v>48.7</v>
       </c>
       <c r="I16" t="n">
-        <v>37.9</v>
+        <v>37.8</v>
       </c>
       <c r="J16" t="n">
         <v>78.90000000000001</v>
@@ -3241,22 +3308,22 @@
         <v>5.7</v>
       </c>
       <c r="M16" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="N16" t="n">
-        <v>0.378</v>
+        <v>0.38</v>
       </c>
       <c r="O16" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="P16" t="n">
         <v>25.2</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.778</v>
+        <v>0.776</v>
       </c>
       <c r="R16" t="n">
-        <v>10.1</v>
+        <v>10</v>
       </c>
       <c r="S16" t="n">
         <v>31.8</v>
@@ -3268,16 +3335,16 @@
         <v>20.8</v>
       </c>
       <c r="V16" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="W16" t="n">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="X16" t="n">
         <v>5.4</v>
       </c>
       <c r="Y16" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Z16" t="n">
         <v>20.1</v>
@@ -3286,13 +3353,13 @@
         <v>21</v>
       </c>
       <c r="AB16" t="n">
-        <v>101</v>
+        <v>100.9</v>
       </c>
       <c r="AC16" t="n">
-        <v>7.6</v>
+        <v>7.3</v>
       </c>
       <c r="AD16" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AE16" t="n">
         <v>3</v>
@@ -3310,7 +3377,7 @@
         <v>4</v>
       </c>
       <c r="AJ16" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK16" t="n">
         <v>1</v>
@@ -3352,10 +3419,10 @@
         <v>3</v>
       </c>
       <c r="AX16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ16" t="n">
         <v>18</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-29-2011-12</t>
+          <t>2012-03-29</t>
         </is>
       </c>
     </row>
@@ -3474,19 +3541,19 @@
         <v>-0.6</v>
       </c>
       <c r="AD17" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AE17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF17" t="n">
         <v>19</v>
       </c>
       <c r="AG17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH17" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI17" t="n">
         <v>9</v>
@@ -3498,7 +3565,7 @@
         <v>22</v>
       </c>
       <c r="AL17" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM17" t="n">
         <v>13</v>
@@ -3522,7 +3589,7 @@
         <v>28</v>
       </c>
       <c r="AT17" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU17" t="n">
         <v>3</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-29-2011-12</t>
+          <t>2012-03-29</t>
         </is>
       </c>
     </row>
@@ -3668,7 +3735,7 @@
         <v>19</v>
       </c>
       <c r="AH18" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI18" t="n">
         <v>19</v>
@@ -3677,7 +3744,7 @@
         <v>8</v>
       </c>
       <c r="AK18" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL18" t="n">
         <v>9</v>
@@ -3686,7 +3753,7 @@
         <v>6</v>
       </c>
       <c r="AN18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO18" t="n">
         <v>4</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-29-2011-12</t>
+          <t>2012-03-29</t>
         </is>
       </c>
     </row>
@@ -3874,7 +3941,7 @@
         <v>13</v>
       </c>
       <c r="AP19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-29-2011-12</t>
+          <t>2012-03-29</t>
         </is>
       </c>
     </row>
@@ -3942,16 +4009,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
       </c>
       <c r="F20" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G20" t="n">
-        <v>0.255</v>
+        <v>0.26</v>
       </c>
       <c r="H20" t="n">
         <v>48.3</v>
@@ -3960,7 +4027,7 @@
         <v>35</v>
       </c>
       <c r="J20" t="n">
-        <v>78.09999999999999</v>
+        <v>78.3</v>
       </c>
       <c r="K20" t="n">
         <v>0.448</v>
@@ -3972,28 +4039,28 @@
         <v>11.8</v>
       </c>
       <c r="N20" t="n">
-        <v>0.332</v>
+        <v>0.327</v>
       </c>
       <c r="O20" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="P20" t="n">
         <v>20.1</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.76</v>
+        <v>0.756</v>
       </c>
       <c r="R20" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="S20" t="n">
-        <v>29.9</v>
+        <v>30</v>
       </c>
       <c r="T20" t="n">
-        <v>41.1</v>
+        <v>41.3</v>
       </c>
       <c r="U20" t="n">
-        <v>20.8</v>
+        <v>21</v>
       </c>
       <c r="V20" t="n">
         <v>15.5</v>
@@ -4017,10 +4084,10 @@
         <v>89.2</v>
       </c>
       <c r="AC20" t="n">
-        <v>-4.6</v>
+        <v>-4.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AE20" t="n">
         <v>28</v>
@@ -4032,7 +4099,7 @@
         <v>28</v>
       </c>
       <c r="AH20" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AI20" t="n">
         <v>24</v>
@@ -4053,13 +4120,13 @@
         <v>22</v>
       </c>
       <c r="AO20" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AP20" t="n">
         <v>28</v>
       </c>
       <c r="AQ20" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AR20" t="n">
         <v>16</v>
@@ -4071,7 +4138,7 @@
         <v>24</v>
       </c>
       <c r="AU20" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AV20" t="n">
         <v>25</v>
@@ -4083,7 +4150,7 @@
         <v>20</v>
       </c>
       <c r="AY20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ20" t="n">
         <v>19</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-29-2011-12</t>
+          <t>2012-03-29</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>2.7</v>
       </c>
       <c r="AD21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE21" t="n">
         <v>17</v>
@@ -4214,7 +4281,7 @@
         <v>17</v>
       </c>
       <c r="AH21" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI21" t="n">
         <v>21</v>
@@ -4244,13 +4311,13 @@
         <v>21</v>
       </c>
       <c r="AR21" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AS21" t="n">
         <v>12</v>
       </c>
       <c r="AT21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AU21" t="n">
         <v>23</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-29-2011-12</t>
+          <t>2012-03-29</t>
         </is>
       </c>
     </row>
@@ -4306,76 +4373,76 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E22" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F22" t="n">
         <v>12</v>
       </c>
       <c r="G22" t="n">
-        <v>0.765</v>
+        <v>0.76</v>
       </c>
       <c r="H22" t="n">
         <v>48.4</v>
       </c>
       <c r="I22" t="n">
-        <v>37.7</v>
+        <v>37.6</v>
       </c>
       <c r="J22" t="n">
-        <v>78.90000000000001</v>
+        <v>78.7</v>
       </c>
       <c r="K22" t="n">
         <v>0.478</v>
       </c>
       <c r="L22" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="M22" t="n">
-        <v>20.1</v>
+        <v>20.3</v>
       </c>
       <c r="N22" t="n">
         <v>0.358</v>
       </c>
       <c r="O22" t="n">
-        <v>21</v>
+        <v>21.2</v>
       </c>
       <c r="P22" t="n">
-        <v>26.4</v>
+        <v>26.6</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.797</v>
+        <v>0.798</v>
       </c>
       <c r="R22" t="n">
-        <v>10.9</v>
+        <v>10.7</v>
       </c>
       <c r="S22" t="n">
-        <v>32.6</v>
+        <v>32.7</v>
       </c>
       <c r="T22" t="n">
-        <v>43.5</v>
+        <v>43.4</v>
       </c>
       <c r="U22" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="V22" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="W22" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="X22" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="Y22" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Z22" t="n">
         <v>20.3</v>
       </c>
       <c r="AA22" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AB22" t="n">
         <v>103.7</v>
@@ -4384,7 +4451,7 @@
         <v>6.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
@@ -4402,7 +4469,7 @@
         <v>7</v>
       </c>
       <c r="AJ22" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK22" t="n">
         <v>2</v>
@@ -4411,7 +4478,7 @@
         <v>8</v>
       </c>
       <c r="AM22" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AN22" t="n">
         <v>10</v>
@@ -4432,7 +4499,7 @@
         <v>3</v>
       </c>
       <c r="AT22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU22" t="n">
         <v>28</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-29-2011-12</t>
+          <t>2012-03-29</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>1.9</v>
       </c>
       <c r="AD23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE23" t="n">
         <v>5</v>
@@ -4578,7 +4645,7 @@
         <v>5</v>
       </c>
       <c r="AH23" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AI23" t="n">
         <v>27</v>
@@ -4614,7 +4681,7 @@
         <v>10</v>
       </c>
       <c r="AT23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU23" t="n">
         <v>19</v>
@@ -4629,7 +4696,7 @@
         <v>27</v>
       </c>
       <c r="AY23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ23" t="n">
         <v>4</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-29-2011-12</t>
+          <t>2012-03-29</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>6.4</v>
       </c>
       <c r="AD24" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AE24" t="n">
         <v>11</v>
@@ -4757,7 +4824,7 @@
         <v>10</v>
       </c>
       <c r="AG24" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH24" t="n">
         <v>24</v>
@@ -4778,7 +4845,7 @@
         <v>25</v>
       </c>
       <c r="AN24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO24" t="n">
         <v>30</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-29-2011-12</t>
+          <t>2012-03-29</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>-0.9</v>
       </c>
       <c r="AD25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE25" t="n">
         <v>18</v>
@@ -4951,7 +5018,7 @@
         <v>11</v>
       </c>
       <c r="AK25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL25" t="n">
         <v>16</v>
@@ -4990,10 +5057,10 @@
         <v>27</v>
       </c>
       <c r="AX25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AY25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AZ25" t="n">
         <v>7</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-29-2011-12</t>
+          <t>2012-03-29</t>
         </is>
       </c>
     </row>
@@ -5034,67 +5101,67 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E26" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F26" t="n">
         <v>27</v>
       </c>
       <c r="G26" t="n">
-        <v>0.471</v>
+        <v>0.46</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
       </c>
       <c r="I26" t="n">
-        <v>36.2</v>
+        <v>36.1</v>
       </c>
       <c r="J26" t="n">
         <v>81.7</v>
       </c>
       <c r="K26" t="n">
-        <v>0.443</v>
+        <v>0.442</v>
       </c>
       <c r="L26" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="M26" t="n">
-        <v>20.4</v>
+        <v>20.2</v>
       </c>
       <c r="N26" t="n">
-        <v>0.34</v>
+        <v>0.337</v>
       </c>
       <c r="O26" t="n">
-        <v>17.4</v>
+        <v>17.6</v>
       </c>
       <c r="P26" t="n">
-        <v>22</v>
+        <v>22.2</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.791</v>
+        <v>0.792</v>
       </c>
       <c r="R26" t="n">
         <v>10.9</v>
       </c>
       <c r="S26" t="n">
-        <v>29.8</v>
+        <v>29.9</v>
       </c>
       <c r="T26" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="U26" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="V26" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="W26" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="X26" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Y26" t="n">
         <v>4.7</v>
@@ -5103,16 +5170,16 @@
         <v>19.7</v>
       </c>
       <c r="AA26" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="AB26" t="n">
         <v>96.7</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="AD26" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AE26" t="n">
         <v>20</v>
@@ -5127,28 +5194,28 @@
         <v>11</v>
       </c>
       <c r="AI26" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK26" t="n">
         <v>18</v>
       </c>
       <c r="AL26" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM26" t="n">
         <v>12</v>
       </c>
-      <c r="AM26" t="n">
-        <v>9</v>
-      </c>
       <c r="AN26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP26" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AQ26" t="n">
         <v>2</v>
@@ -5166,16 +5233,16 @@
         <v>18</v>
       </c>
       <c r="AV26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AW26" t="n">
         <v>9</v>
       </c>
       <c r="AX26" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AY26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ26" t="n">
         <v>16</v>
@@ -5184,7 +5251,7 @@
         <v>11</v>
       </c>
       <c r="BB26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BC26" t="n">
         <v>16</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-29-2011-12</t>
+          <t>2012-03-29</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-5.6</v>
       </c>
       <c r="AD27" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AE27" t="n">
         <v>24</v>
@@ -5306,7 +5373,7 @@
         <v>25</v>
       </c>
       <c r="AH27" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI27" t="n">
         <v>12</v>
@@ -5327,7 +5394,7 @@
         <v>25</v>
       </c>
       <c r="AO27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP27" t="n">
         <v>12</v>
@@ -5363,7 +5430,7 @@
         <v>11</v>
       </c>
       <c r="BA27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BB27" t="n">
         <v>7</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-29-2011-12</t>
+          <t>2012-03-29</t>
         </is>
       </c>
     </row>
@@ -5476,10 +5543,10 @@
         <v>4.9</v>
       </c>
       <c r="AD28" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AE28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF28" t="n">
         <v>4</v>
@@ -5509,7 +5576,7 @@
         <v>1</v>
       </c>
       <c r="AO28" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AP28" t="n">
         <v>21</v>
@@ -5524,7 +5591,7 @@
         <v>7</v>
       </c>
       <c r="AT28" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU28" t="n">
         <v>6</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-29-2011-12</t>
+          <t>2012-03-29</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>-3.8</v>
       </c>
       <c r="AD29" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE29" t="n">
         <v>24</v>
@@ -5703,7 +5770,7 @@
         <v>23</v>
       </c>
       <c r="AS29" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AT29" t="n">
         <v>21</v>
@@ -5712,7 +5779,7 @@
         <v>12</v>
       </c>
       <c r="AV29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW29" t="n">
         <v>26</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-29-2011-12</t>
+          <t>2012-03-29</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>0</v>
       </c>
       <c r="AD30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE30" t="n">
         <v>13</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-29-2011-12</t>
+          <t>2012-03-29</t>
         </is>
       </c>
     </row>
@@ -5944,34 +6011,34 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E31" t="n">
         <v>11</v>
       </c>
       <c r="F31" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G31" t="n">
-        <v>0.22</v>
+        <v>0.224</v>
       </c>
       <c r="H31" t="n">
         <v>48.1</v>
       </c>
       <c r="I31" t="n">
-        <v>36.1</v>
+        <v>36.2</v>
       </c>
       <c r="J31" t="n">
-        <v>83</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="K31" t="n">
-        <v>0.435</v>
+        <v>0.436</v>
       </c>
       <c r="L31" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="M31" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="N31" t="n">
         <v>0.315</v>
@@ -5983,22 +6050,22 @@
         <v>21.8</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.72</v>
+        <v>0.721</v>
       </c>
       <c r="R31" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="S31" t="n">
         <v>29.8</v>
       </c>
       <c r="T31" t="n">
-        <v>41.7</v>
+        <v>41.6</v>
       </c>
       <c r="U31" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="V31" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="W31" t="n">
         <v>8</v>
@@ -6010,19 +6077,19 @@
         <v>4.6</v>
       </c>
       <c r="Z31" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="AA31" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="AB31" t="n">
-        <v>93</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="AC31" t="n">
         <v>-7.3</v>
       </c>
       <c r="AD31" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AE31" t="n">
         <v>29</v>
@@ -6037,13 +6104,13 @@
         <v>26</v>
       </c>
       <c r="AI31" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ31" t="n">
         <v>7</v>
       </c>
       <c r="AK31" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL31" t="n">
         <v>25</v>
@@ -6070,16 +6137,16 @@
         <v>22</v>
       </c>
       <c r="AT31" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AU31" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AV31" t="n">
         <v>22</v>
       </c>
       <c r="AW31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX31" t="n">
         <v>2</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-29-2011-12</t>
+          <t>2012-03-29</t>
         </is>
       </c>
     </row>
